--- a/AlphaReal/pred_model/multi_step_model_6_12_200514_pred.xlsx
+++ b/AlphaReal/pred_model/multi_step_model_6_12_200514_pred.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\DeepLearning_codes\AlphaReal\pred_model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618FDA87-1B11-4730-9E0F-74B543C666EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5565" yWindow="1935" windowWidth="23730" windowHeight="12915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>JS</t>
   </si>
@@ -157,12 +172,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -170,8 +185,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,15 +239,3112 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>매매 지수 예측</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>110.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.0306683900356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.2602857732773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.7555283532142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.07555706024171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.4832576627731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113.4098495135307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.9629972229004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115.25343265771861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115.5100267181396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115.5368987598419</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115.1563611028195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>104.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.59929343175889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.3821754684448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.8323007621765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.2690462150574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.61853939294819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106.6990232191086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.66887840557099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.33004778051379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108.0215237350464</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109.1113558421135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110.4985111474991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.5739163827896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.0855812044144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.9241909723282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.0156064419746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.656722135067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106.8963013324738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.7920535030365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.0145127763748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.013174492836</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107.0685067043305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>108.6399790930748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>93.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.527597938537596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.791458793878562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.628357855081561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.702127253592025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.532917394757277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.881309590876086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.03744624257088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.693334773063654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.131997025847454</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.453787852644922</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.513453014969841</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.3566231827736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.0148140650988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.3767293720245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.462333306551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.9341179447174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.8017129607201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105.1302478337288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.1547955436707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105.78583637094501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.68566970825199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.0918146038055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.7280322544575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.4540977498889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.33920296907429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.51222735881809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.39050127017499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.2461357998848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105.1529736273289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.35069865465159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105.6575497970581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.1340199780464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106.2540518381595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>116.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.1542817831039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.67182447910309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.6798151721954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.8811771087646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121.05029154586791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122.5931812963486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123.41430834293369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123.74359806060789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124.8667149333954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125.88245799446111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.46688222694399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.866747786939158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.139889726459984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.881418288946165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.995668934941293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.848181521296496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.686407763004297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.752133250236511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.407696357965477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.849957440137857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.405351459026321</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.971262225151065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.541580533027641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.795471744537352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.994630630970008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.989003396034235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.290067728996277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.752775747299196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.43117217063903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.810260711669912</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.74355478954314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.549410135746001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.412875547409058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.161737981796264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.128498690128325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.606113733053206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.253328895568856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.95046165323258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.23884464216232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.018416366577156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.933169012546543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.379392539858827</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.863249377965928</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.197393894195557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.628753415226939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.553193508386613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.273105510354043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.257549071311956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.077979137659071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.178996489286419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.20812720382213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.416984778285027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.512405026674273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.948077235043044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.256423085883256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.525873441696163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.864861939907072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.589475013732908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.180054713249206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.690653669357289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.379332166671745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.061023255109788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.794408555269243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.328331935167313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.74257727098464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.77341588401795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.3099830800295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.56950596213341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.30332781434061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.84672204995159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.566717274189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.1783128833771</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105.69096191883089</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.8869234228134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106.43647705078121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.6318277044296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106.33806148195259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.008957547187819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.070106079101564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.8407440662384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.54112015008927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.203890588760373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.283988782882687</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.913241751790054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.554565307140351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.417835419297219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.407632491707801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86.361168886184686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.255718558311457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.081296069383612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.619415029883385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.114879045367246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.654290618896482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.602529541254043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.388114366054523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.503603970468049</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.682321310043335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.959811675116413</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86.102394178077574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.555240097045896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.906419860601432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.55391276955605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.424975615382181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.000745705604544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.088207486152655</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.567271670103068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.440852191448215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.345206059813492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.429358169198039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.512615595206611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-0D84-4E88-BAA0-3386C8D78F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1507713184"/>
+        <c:axId val="1106499648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1507713184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1106499648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1106499648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507713184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176211</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E16BE2E-3010-4C61-96AD-8C0236A5E877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -267,7 +3386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,9 +3418,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,6 +3470,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,14 +3663,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="A1:AE17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +3764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -621,13 +3778,13 @@
         <v>4617</v>
       </c>
       <c r="E2">
-        <v>2.653061224489784</v>
+        <v>2.6530612244897842</v>
       </c>
       <c r="F2">
         <v>3.355079217148194</v>
       </c>
       <c r="G2">
-        <v>0.4601079453768602</v>
+        <v>0.46010794537686017</v>
       </c>
       <c r="H2">
         <v>3.670091867446899</v>
@@ -636,34 +3793,34 @@
         <v>3.981575489044189</v>
       </c>
       <c r="J2">
-        <v>4.346898555755615</v>
+        <v>4.3468985557556152</v>
       </c>
       <c r="K2">
-        <v>4.548094272613525</v>
+        <v>4.5480942726135254</v>
       </c>
       <c r="L2">
-        <v>4.733014583587646</v>
+        <v>4.7330145835876456</v>
       </c>
       <c r="M2">
-        <v>4.911979198455811</v>
+        <v>4.9119791984558114</v>
       </c>
       <c r="N2">
-        <v>4.745401859283447</v>
+        <v>4.7454018592834473</v>
       </c>
       <c r="O2">
-        <v>4.680683612823486</v>
+        <v>4.6806836128234863</v>
       </c>
       <c r="P2">
-        <v>4.439445495605469</v>
+        <v>4.4394454956054688</v>
       </c>
       <c r="Q2">
         <v>4.275179386138916</v>
       </c>
       <c r="R2">
-        <v>3.838017225265503</v>
+        <v>3.8380172252655029</v>
       </c>
       <c r="S2">
-        <v>4.052007675170898</v>
+        <v>4.0520076751708984</v>
       </c>
       <c r="T2">
         <v>111.0306683900356</v>
@@ -675,7 +3832,7 @@
         <v>111.7555283532142</v>
       </c>
       <c r="W2">
-        <v>112.0755570602417</v>
+        <v>112.07555706024171</v>
       </c>
       <c r="X2">
         <v>112.4832576627731</v>
@@ -687,7 +3844,7 @@
         <v>113.9629972229004</v>
       </c>
       <c r="AA2">
-        <v>115.2534326577186</v>
+        <v>115.25343265771861</v>
       </c>
       <c r="AB2">
         <v>115.5100267181396</v>
@@ -699,10 +3856,10 @@
         <v>115.1563611028195</v>
       </c>
       <c r="AE2">
-        <v>3.715813632942244</v>
+        <v>3.7158136329422442</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -716,52 +3873,52 @@
         <v>11368</v>
       </c>
       <c r="E3">
-        <v>2.236421725239612</v>
+        <v>2.2364217252396119</v>
       </c>
       <c r="F3">
-        <v>4.079601990049754</v>
+        <v>4.0796019900497544</v>
       </c>
       <c r="G3">
-        <v>4.116019761781783</v>
+        <v>4.1160197617817831</v>
       </c>
       <c r="H3">
-        <v>3.495797634124756</v>
+        <v>3.4957976341247559</v>
       </c>
       <c r="I3">
-        <v>4.591358184814453</v>
+        <v>4.5913581848144531</v>
       </c>
       <c r="J3">
-        <v>5.253314018249512</v>
+        <v>5.2533140182495117</v>
       </c>
       <c r="K3">
-        <v>5.691813468933105</v>
+        <v>5.6918134689331046</v>
       </c>
       <c r="L3">
-        <v>5.936348438262939</v>
+        <v>5.9363484382629386</v>
       </c>
       <c r="M3">
-        <v>6.805829048156738</v>
+        <v>6.8058290481567383</v>
       </c>
       <c r="N3">
-        <v>6.455966472625732</v>
+        <v>6.4559664726257324</v>
       </c>
       <c r="O3">
-        <v>6.372693538665771</v>
+        <v>6.3726935386657706</v>
       </c>
       <c r="P3">
-        <v>6.32039737701416</v>
+        <v>6.3203973770141602</v>
       </c>
       <c r="Q3">
         <v>6.242800235748291</v>
       </c>
       <c r="R3">
-        <v>5.639111995697021</v>
+        <v>5.6391119956970206</v>
       </c>
       <c r="S3">
-        <v>5.596577644348145</v>
+        <v>5.5965776443481454</v>
       </c>
       <c r="T3">
-        <v>103.5992934317589</v>
+        <v>103.59929343175889</v>
       </c>
       <c r="U3">
         <v>104.3821754684448</v>
@@ -773,16 +3930,16 @@
         <v>105.2690462150574</v>
       </c>
       <c r="X3">
-        <v>105.6185393929482</v>
+        <v>105.61853939294819</v>
       </c>
       <c r="Y3">
         <v>106.6990232191086</v>
       </c>
       <c r="Z3">
-        <v>106.668878405571</v>
+        <v>106.66887840557099</v>
       </c>
       <c r="AA3">
-        <v>107.3300477805138</v>
+        <v>107.33004778051379</v>
       </c>
       <c r="AB3">
         <v>108.0215237350464</v>
@@ -794,15 +3951,15 @@
         <v>110.4985111474991</v>
       </c>
       <c r="AE3">
-        <v>6.659521978578686</v>
+        <v>6.6595219785786863</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B4">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="C4">
         <v>103.3</v>
@@ -817,43 +3974,43 @@
         <v>3.819095477386925</v>
       </c>
       <c r="G4">
-        <v>8.342495666137212</v>
+        <v>8.3424956661372125</v>
       </c>
       <c r="H4">
-        <v>5.205147266387939</v>
+        <v>5.2051472663879386</v>
       </c>
       <c r="I4">
-        <v>5.719900608062744</v>
+        <v>5.7199006080627441</v>
       </c>
       <c r="J4">
-        <v>6.563572406768799</v>
+        <v>6.5635724067687988</v>
       </c>
       <c r="K4">
-        <v>6.97841215133667</v>
+        <v>6.9784121513366699</v>
       </c>
       <c r="L4">
-        <v>7.408582210540771</v>
+        <v>7.4085822105407706</v>
       </c>
       <c r="M4">
-        <v>7.541550636291504</v>
+        <v>7.5415506362915039</v>
       </c>
       <c r="N4">
-        <v>7.220937252044678</v>
+        <v>7.2209372520446777</v>
       </c>
       <c r="O4">
-        <v>6.907605171203613</v>
+        <v>6.9076051712036133</v>
       </c>
       <c r="P4">
-        <v>6.693095207214355</v>
+        <v>6.6930952072143546</v>
       </c>
       <c r="Q4">
-        <v>6.113485336303711</v>
+        <v>6.1134853363037109</v>
       </c>
       <c r="R4">
-        <v>5.169389247894287</v>
+        <v>5.1693892478942871</v>
       </c>
       <c r="S4">
-        <v>5.356222629547119</v>
+        <v>5.3562226295471191</v>
       </c>
       <c r="T4">
         <v>104.5739163827896</v>
@@ -892,7 +4049,7 @@
         <v>3.888218832123957</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -900,37 +4057,37 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>93.90000000000001</v>
+        <v>93.9</v>
       </c>
       <c r="D5">
         <v>1091</v>
       </c>
       <c r="E5">
-        <v>-1.247401247401248</v>
+        <v>-1.2474012474012479</v>
       </c>
       <c r="F5">
         <v>-1.157894736842102</v>
       </c>
       <c r="G5">
-        <v>-4.575914576621791</v>
+        <v>-4.5759145766217912</v>
       </c>
       <c r="H5">
-        <v>-1.133617401123047</v>
+        <v>-1.1336174011230471</v>
       </c>
       <c r="I5">
-        <v>-0.5392801761627197</v>
+        <v>-0.53928017616271973</v>
       </c>
       <c r="J5">
-        <v>-0.2892887592315674</v>
+        <v>-0.28928875923156738</v>
       </c>
       <c r="K5">
-        <v>0.002270281314849854</v>
+        <v>2.2702813148498539E-3</v>
       </c>
       <c r="L5">
-        <v>0.142309844493866</v>
+        <v>0.14230984449386599</v>
       </c>
       <c r="M5">
-        <v>0.8392154574394226</v>
+        <v>0.83921545743942261</v>
       </c>
       <c r="N5">
         <v>0.8985474705696106</v>
@@ -939,55 +4096,55 @@
         <v>1.060122489929199</v>
       </c>
       <c r="P5">
-        <v>1.312030911445618</v>
+        <v>1.3120309114456179</v>
       </c>
       <c r="Q5">
-        <v>1.654726147651672</v>
+        <v>1.6547261476516719</v>
       </c>
       <c r="R5">
-        <v>1.718267321586609</v>
+        <v>1.7182673215866091</v>
       </c>
       <c r="S5">
-        <v>1.73672354221344</v>
+        <v>1.7367235422134399</v>
       </c>
       <c r="T5">
-        <v>93.5275979385376</v>
+        <v>93.527597938537596</v>
       </c>
       <c r="U5">
-        <v>93.79145879387856</v>
+        <v>93.791458793878562</v>
       </c>
       <c r="V5">
-        <v>93.62835785508156</v>
+        <v>93.628357855081561</v>
       </c>
       <c r="W5">
-        <v>93.70212725359202</v>
+        <v>93.702127253592025</v>
       </c>
       <c r="X5">
-        <v>93.53291739475728</v>
+        <v>93.532917394757277</v>
       </c>
       <c r="Y5">
-        <v>93.88130959087609</v>
+        <v>93.881309590876086</v>
       </c>
       <c r="Z5">
         <v>94.03744624257088</v>
       </c>
       <c r="AA5">
-        <v>94.69333477306365</v>
+        <v>94.693334773063654</v>
       </c>
       <c r="AB5">
-        <v>95.13199702584745</v>
+        <v>95.131997025847454</v>
       </c>
       <c r="AC5">
-        <v>95.45378785264492</v>
+        <v>95.453787852644922</v>
       </c>
       <c r="AD5">
-        <v>95.51345301496984</v>
+        <v>95.513453014969841</v>
       </c>
       <c r="AE5">
-        <v>2.123282453738695</v>
+        <v>2.1232824537386952</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1004,10 +4161,10 @@
         <v>2.390438247011951</v>
       </c>
       <c r="F6">
-        <v>0.7751937984496138</v>
+        <v>0.77519379844961378</v>
       </c>
       <c r="G6">
-        <v>9.489529596123694</v>
+        <v>9.4895295961236936</v>
       </c>
       <c r="H6">
         <v>1.218839168548584</v>
@@ -1019,31 +4176,31 @@
         <v>1.533783435821533</v>
       </c>
       <c r="K6">
-        <v>1.716001272201538</v>
+        <v>1.7160012722015381</v>
       </c>
       <c r="L6">
-        <v>2.175382614135742</v>
+        <v>2.1753826141357422</v>
       </c>
       <c r="M6">
         <v>1.947191596031189</v>
       </c>
       <c r="N6">
-        <v>2.068201780319214</v>
+        <v>2.0682017803192139</v>
       </c>
       <c r="O6">
-        <v>1.894181728363037</v>
+        <v>1.8941817283630371</v>
       </c>
       <c r="P6">
-        <v>2.011414051055908</v>
+        <v>2.0114140510559082</v>
       </c>
       <c r="Q6">
-        <v>1.62083625793457</v>
+        <v>1.6208362579345701</v>
       </c>
       <c r="R6">
         <v>1.049821734428406</v>
       </c>
       <c r="S6">
-        <v>1.56202495098114</v>
+        <v>1.5620249509811399</v>
       </c>
       <c r="T6">
         <v>104.3566231827736</v>
@@ -1070,19 +4227,19 @@
         <v>105.1547955436707</v>
       </c>
       <c r="AB6">
-        <v>105.785836370945</v>
+        <v>105.78583637094501</v>
       </c>
       <c r="AC6">
-        <v>105.685669708252</v>
+        <v>105.68566970825199</v>
       </c>
       <c r="AD6">
         <v>105.0918146038055</v>
       </c>
       <c r="AE6">
-        <v>0.7044990520096883</v>
+        <v>0.70449905200968832</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1096,13 +4253,13 @@
         <v>1195</v>
       </c>
       <c r="E7">
-        <v>-0.3948667324777833</v>
+        <v>-0.39486673247778331</v>
       </c>
       <c r="F7">
-        <v>-0.3857280617164949</v>
+        <v>-0.38572806171649487</v>
       </c>
       <c r="G7">
-        <v>1.366317456486121</v>
+        <v>1.3663174564861209</v>
       </c>
       <c r="H7">
         <v>0.1235832571983337</v>
@@ -1117,7 +4274,7 @@
         <v>1.271538138389587</v>
       </c>
       <c r="L7">
-        <v>1.251698613166809</v>
+        <v>1.2516986131668091</v>
       </c>
       <c r="M7">
         <v>2.18071436882019</v>
@@ -1126,19 +4283,19 @@
         <v>1.991245031356812</v>
       </c>
       <c r="O7">
-        <v>2.183024883270264</v>
+        <v>2.1830248832702641</v>
       </c>
       <c r="P7">
         <v>2.381346702575684</v>
       </c>
       <c r="Q7">
-        <v>2.743484973907471</v>
+        <v>2.7434849739074711</v>
       </c>
       <c r="R7">
-        <v>2.859682321548462</v>
+        <v>2.8596823215484619</v>
       </c>
       <c r="S7">
-        <v>2.629563808441162</v>
+        <v>2.6295638084411621</v>
       </c>
       <c r="T7">
         <v>103.7280322544575</v>
@@ -1147,13 +4304,13 @@
         <v>104.4540977498889</v>
       </c>
       <c r="V7">
-        <v>104.3392029690743</v>
+        <v>104.33920296907429</v>
       </c>
       <c r="W7">
-        <v>104.5122273588181</v>
+        <v>104.51222735881809</v>
       </c>
       <c r="X7">
-        <v>104.390501270175</v>
+        <v>104.39050127017499</v>
       </c>
       <c r="Y7">
         <v>105.2461357998848</v>
@@ -1162,7 +4319,7 @@
         <v>105.1529736273289</v>
       </c>
       <c r="AA7">
-        <v>105.3506986546516</v>
+        <v>105.35069865465159</v>
       </c>
       <c r="AB7">
         <v>105.6575497970581</v>
@@ -1174,10 +4331,10 @@
         <v>106.2540518381595</v>
       </c>
       <c r="AE7">
-        <v>2.435233300777795</v>
+        <v>2.4352333007777949</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1191,13 +4348,13 @@
         <v>2172</v>
       </c>
       <c r="E8">
-        <v>5.776892430278879</v>
+        <v>5.7768924302788793</v>
       </c>
       <c r="F8">
         <v>12.82798833819241</v>
       </c>
       <c r="G8">
-        <v>6.245717220185053</v>
+        <v>6.2457172201850533</v>
       </c>
       <c r="H8">
         <v>12.66176700592041</v>
@@ -1212,34 +4369,34 @@
         <v>14.39043617248535</v>
       </c>
       <c r="L8">
-        <v>14.09075546264648</v>
+        <v>14.090755462646481</v>
       </c>
       <c r="M8">
-        <v>13.82839488983154</v>
+        <v>13.828394889831539</v>
       </c>
       <c r="N8">
-        <v>12.91336536407471</v>
+        <v>12.913365364074711</v>
       </c>
       <c r="O8">
-        <v>11.68194770812988</v>
+        <v>11.681947708129879</v>
       </c>
       <c r="P8">
-        <v>10.89406299591064</v>
+        <v>10.894062995910639</v>
       </c>
       <c r="Q8">
-        <v>10.22982311248779</v>
+        <v>10.229823112487789</v>
       </c>
       <c r="R8">
-        <v>8.929269790649414</v>
+        <v>8.9292697906494141</v>
       </c>
       <c r="S8">
-        <v>8.327258110046387</v>
+        <v>8.3272581100463867</v>
       </c>
       <c r="T8">
         <v>116.1542817831039</v>
       </c>
       <c r="U8">
-        <v>117.6718244791031</v>
+        <v>117.67182447910309</v>
       </c>
       <c r="V8">
         <v>118.6798151721954</v>
@@ -1248,36 +4405,36 @@
         <v>119.8811771087646</v>
       </c>
       <c r="X8">
-        <v>121.0502915458679</v>
+        <v>121.05029154586791</v>
       </c>
       <c r="Y8">
         <v>122.5931812963486</v>
       </c>
       <c r="Z8">
-        <v>123.4143083429337</v>
+        <v>123.41430834293369</v>
       </c>
       <c r="AA8">
-        <v>123.7435980606079</v>
+        <v>123.74359806060789</v>
       </c>
       <c r="AB8">
         <v>124.8667149333954</v>
       </c>
       <c r="AC8">
-        <v>125.8824579944611</v>
+        <v>125.88245799446111</v>
       </c>
       <c r="AD8">
-        <v>126.466882226944</v>
+        <v>126.46688222694399</v>
       </c>
       <c r="AE8">
-        <v>8.878364435240393</v>
+        <v>8.8783644352403925</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9">
-        <v>85.59999999999999</v>
+        <v>85.6</v>
       </c>
       <c r="C9">
         <v>87.8</v>
@@ -1286,31 +4443,31 @@
         <v>1023</v>
       </c>
       <c r="E9">
-        <v>0.5875440658049458</v>
+        <v>0.58754406580494578</v>
       </c>
       <c r="F9">
-        <v>0.6880733944954143</v>
+        <v>0.68807339449541427</v>
       </c>
       <c r="G9">
-        <v>1.828237699409862</v>
+        <v>1.8282376994098619</v>
       </c>
       <c r="H9">
-        <v>0.1923273205757141</v>
+        <v>0.19232732057571411</v>
       </c>
       <c r="I9">
-        <v>0.9732210040092468</v>
+        <v>0.97322100400924683</v>
       </c>
       <c r="J9">
-        <v>1.142512559890747</v>
+        <v>1.1425125598907471</v>
       </c>
       <c r="K9">
-        <v>1.511865735054016</v>
+        <v>1.5118657350540159</v>
       </c>
       <c r="L9">
         <v>1.576820492744446</v>
       </c>
       <c r="M9">
-        <v>2.317862033843994</v>
+        <v>2.3178620338439941</v>
       </c>
       <c r="N9">
         <v>2.03736424446106</v>
@@ -1328,46 +4485,46 @@
         <v>2.472963809967041</v>
       </c>
       <c r="S9">
-        <v>2.207106590270996</v>
+        <v>2.2071065902709961</v>
       </c>
       <c r="T9">
-        <v>86.86674778693916</v>
+        <v>86.866747786939158</v>
       </c>
       <c r="U9">
-        <v>87.13988972645998</v>
+        <v>87.139889726459984</v>
       </c>
       <c r="V9">
-        <v>86.88141828894616</v>
+        <v>86.881418288946165</v>
       </c>
       <c r="W9">
-        <v>86.99566893494129</v>
+        <v>86.995668934941293</v>
       </c>
       <c r="X9">
-        <v>86.8481815212965</v>
+        <v>86.848181521296496</v>
       </c>
       <c r="Y9">
-        <v>87.6864077630043</v>
+        <v>87.686407763004297</v>
       </c>
       <c r="Z9">
-        <v>87.75213325023651</v>
+        <v>87.752133250236511</v>
       </c>
       <c r="AA9">
-        <v>88.40769635796548</v>
+        <v>88.407696357965477</v>
       </c>
       <c r="AB9">
-        <v>88.84995744013786</v>
+        <v>88.849957440137857</v>
       </c>
       <c r="AC9">
-        <v>89.40535145902632</v>
+        <v>89.405351459026321</v>
       </c>
       <c r="AD9">
-        <v>89.97126222515107</v>
+        <v>89.971262225151065</v>
       </c>
       <c r="AE9">
         <v>3.573881280586733</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1381,28 +4538,28 @@
         <v>1062</v>
       </c>
       <c r="E10">
-        <v>-4.264392324093813</v>
+        <v>-4.2643923240938131</v>
       </c>
       <c r="F10">
-        <v>-5.144694533762051</v>
+        <v>-5.1446945337620509</v>
       </c>
       <c r="G10">
-        <v>11.68764759497867</v>
+        <v>11.687647594978669</v>
       </c>
       <c r="H10">
-        <v>-4.382742404937744</v>
+        <v>-4.3827424049377441</v>
       </c>
       <c r="I10">
-        <v>-4.570139408111572</v>
+        <v>-4.5701394081115723</v>
       </c>
       <c r="J10">
-        <v>-4.715629100799561</v>
+        <v>-4.7156291007995614</v>
       </c>
       <c r="K10">
-        <v>-4.984526634216309</v>
+        <v>-4.9845266342163086</v>
       </c>
       <c r="L10">
-        <v>-5.022196292877197</v>
+        <v>-5.0221962928771973</v>
       </c>
       <c r="M10">
         <v>-5.198237419128418</v>
@@ -1411,58 +4568,58 @@
         <v>-5.346219539642334</v>
       </c>
       <c r="O10">
-        <v>-5.619075775146484</v>
+        <v>-5.6190757751464844</v>
       </c>
       <c r="P10">
-        <v>-5.481315135955811</v>
+        <v>-5.4813151359558114</v>
       </c>
       <c r="Q10">
-        <v>-5.593886852264404</v>
+        <v>-5.5938868522644043</v>
       </c>
       <c r="R10">
-        <v>-5.748163223266602</v>
+        <v>-5.7481632232666016</v>
       </c>
       <c r="S10">
-        <v>-5.46240758895874</v>
+        <v>-5.4624075889587402</v>
       </c>
       <c r="T10">
-        <v>88.54158053302764</v>
+        <v>88.541580533027641</v>
       </c>
       <c r="U10">
-        <v>87.79547174453735</v>
+        <v>87.795471744537352</v>
       </c>
       <c r="V10">
-        <v>86.99463063097001</v>
+        <v>86.994630630970008</v>
       </c>
       <c r="W10">
-        <v>85.98900339603424</v>
+        <v>85.989003396034235</v>
       </c>
       <c r="X10">
-        <v>85.29006772899628</v>
+        <v>85.290067728996277</v>
       </c>
       <c r="Y10">
-        <v>84.7527757472992</v>
+        <v>84.752775747299196</v>
       </c>
       <c r="Z10">
         <v>84.43117217063903</v>
       </c>
       <c r="AA10">
-        <v>83.81026071166991</v>
+        <v>83.810260711669912</v>
       </c>
       <c r="AB10">
         <v>83.74355478954314</v>
       </c>
       <c r="AC10">
-        <v>83.549410135746</v>
+        <v>83.549410135746001</v>
       </c>
       <c r="AD10">
-        <v>83.41287554740906</v>
+        <v>83.412875547409058</v>
       </c>
       <c r="AE10">
-        <v>-5.792425383354749</v>
+        <v>-5.7924253833547494</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1476,61 +4633,61 @@
         <v>370</v>
       </c>
       <c r="E11">
-        <v>-2.588996763754048</v>
+        <v>-2.5889967637540479</v>
       </c>
       <c r="F11">
-        <v>-3.719912472647713</v>
+        <v>-3.7199124726477129</v>
       </c>
       <c r="G11">
-        <v>3.116208906757038</v>
+        <v>3.1162089067570382</v>
       </c>
       <c r="H11">
-        <v>-4.006896495819092</v>
+        <v>-4.0068964958190918</v>
       </c>
       <c r="I11">
-        <v>-3.298003673553467</v>
+        <v>-3.2980036735534668</v>
       </c>
       <c r="J11">
         <v>-3.233392477035522</v>
       </c>
       <c r="K11">
-        <v>-3.086147308349609</v>
+        <v>-3.0861473083496089</v>
       </c>
       <c r="L11">
-        <v>-3.099817752838135</v>
+        <v>-3.0998177528381352</v>
       </c>
       <c r="M11">
-        <v>-2.334264278411865</v>
+        <v>-2.3342642784118648</v>
       </c>
       <c r="N11">
         <v>-2.251799583435059</v>
       </c>
       <c r="O11">
-        <v>-2.23757791519165</v>
+        <v>-2.2375779151916499</v>
       </c>
       <c r="P11">
         <v>-1.729928851127625</v>
       </c>
       <c r="Q11">
-        <v>-1.179466009140015</v>
+        <v>-1.1794660091400151</v>
       </c>
       <c r="R11">
-        <v>-0.9120523929595947</v>
+        <v>-0.91205239295959473</v>
       </c>
       <c r="S11">
         <v>-1.098119378089905</v>
       </c>
       <c r="T11">
-        <v>87.16173798179626</v>
+        <v>87.161737981796264</v>
       </c>
       <c r="U11">
-        <v>87.12849869012832</v>
+        <v>87.128498690128325</v>
       </c>
       <c r="V11">
-        <v>86.60611373305321</v>
+        <v>86.606113733053206</v>
       </c>
       <c r="W11">
-        <v>86.25332889556886</v>
+        <v>86.253328895568856</v>
       </c>
       <c r="X11">
         <v>85.95046165323258</v>
@@ -1539,30 +4696,30 @@
         <v>86.23884464216232</v>
       </c>
       <c r="Z11">
-        <v>86.01841636657716</v>
+        <v>86.018416366577156</v>
       </c>
       <c r="AA11">
-        <v>85.93316901254654</v>
+        <v>85.933169012546543</v>
       </c>
       <c r="AB11">
-        <v>86.37939253985883</v>
+        <v>86.379392539858827</v>
       </c>
       <c r="AC11">
-        <v>86.86324937796593</v>
+        <v>86.863249377965928</v>
       </c>
       <c r="AD11">
-        <v>87.19739389419556</v>
+        <v>87.197393894195557</v>
       </c>
       <c r="AE11">
-        <v>0.04090775749185926</v>
+        <v>4.0907757491859258E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B12">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="C12">
         <v>92.3</v>
@@ -1571,22 +4728,22 @@
         <v>2668</v>
       </c>
       <c r="E12">
-        <v>0.7430997876857859</v>
+        <v>0.74309978768578588</v>
       </c>
       <c r="F12">
         <v>-1.388888888888884</v>
       </c>
       <c r="G12">
-        <v>-1.668977030327394</v>
+        <v>-1.6689770303273941</v>
       </c>
       <c r="H12">
-        <v>-1.791261076927185</v>
+        <v>-1.7912610769271851</v>
       </c>
       <c r="I12">
-        <v>-1.555705904960632</v>
+        <v>-1.5557059049606321</v>
       </c>
       <c r="J12">
-        <v>-1.539260506629944</v>
+        <v>-1.5392605066299441</v>
       </c>
       <c r="K12">
         <v>-1.34319019317627</v>
@@ -1598,61 +4755,61 @@
         <v>-1.107379078865051</v>
       </c>
       <c r="N12">
-        <v>-0.9683743715286255</v>
+        <v>-0.96837437152862549</v>
       </c>
       <c r="O12">
-        <v>-0.8492572903633118</v>
+        <v>-0.84925729036331177</v>
       </c>
       <c r="P12">
-        <v>-0.7457646131515503</v>
+        <v>-0.74576461315155029</v>
       </c>
       <c r="Q12">
-        <v>-0.3812814354896545</v>
+        <v>-0.38128143548965449</v>
       </c>
       <c r="R12">
-        <v>-0.04721225798130035</v>
+        <v>-4.7212257981300347E-2</v>
       </c>
       <c r="S12">
         <v>-0.1018485128879547</v>
       </c>
       <c r="T12">
-        <v>91.62875341522694</v>
+        <v>91.628753415226939</v>
       </c>
       <c r="U12">
-        <v>91.55319350838661</v>
+        <v>91.553193508386613</v>
       </c>
       <c r="V12">
-        <v>91.27310551035404</v>
+        <v>91.273105510354043</v>
       </c>
       <c r="W12">
-        <v>91.25754907131196</v>
+        <v>91.257549071311956</v>
       </c>
       <c r="X12">
-        <v>91.07797913765907</v>
+        <v>91.077979137659071</v>
       </c>
       <c r="Y12">
-        <v>91.17899648928642</v>
+        <v>91.178996489286419</v>
       </c>
       <c r="Z12">
         <v>91.20812720382213</v>
       </c>
       <c r="AA12">
-        <v>91.41698477828503</v>
+        <v>91.416984778285027</v>
       </c>
       <c r="AB12">
-        <v>91.51240502667427</v>
+        <v>91.512405026674273</v>
       </c>
       <c r="AC12">
-        <v>91.94807723504304</v>
+        <v>91.948077235043044</v>
       </c>
       <c r="AD12">
-        <v>92.25642308588326</v>
+        <v>92.256423085883256</v>
       </c>
       <c r="AE12">
-        <v>0.6850138709319387</v>
+        <v>0.68501387093193866</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1666,37 +4823,37 @@
         <v>555</v>
       </c>
       <c r="E13">
-        <v>-2.451481103166497</v>
+        <v>-2.4514811031664969</v>
       </c>
       <c r="F13">
         <v>-2.786377708978327</v>
       </c>
       <c r="G13">
-        <v>-6.776404672320495</v>
+        <v>-6.7764046723204947</v>
       </c>
       <c r="H13">
-        <v>-5.154535293579102</v>
+        <v>-5.1545352935791016</v>
       </c>
       <c r="I13">
-        <v>-4.40701150894165</v>
+        <v>-4.4070115089416504</v>
       </c>
       <c r="J13">
-        <v>-4.295219421386719</v>
+        <v>-4.2952194213867188</v>
       </c>
       <c r="K13">
-        <v>-4.323132514953613</v>
+        <v>-4.3231325149536133</v>
       </c>
       <c r="L13">
-        <v>-4.334753513336182</v>
+        <v>-4.3347535133361816</v>
       </c>
       <c r="M13">
         <v>-3.404511451721191</v>
       </c>
       <c r="N13">
-        <v>-3.434757947921753</v>
+        <v>-3.4347579479217529</v>
       </c>
       <c r="O13">
-        <v>-3.512849569320679</v>
+        <v>-3.5128495693206792</v>
       </c>
       <c r="P13">
         <v>-2.945449590682983</v>
@@ -1705,37 +4862,37 @@
         <v>-2.505231380462646</v>
       </c>
       <c r="R13">
-        <v>-2.575991630554199</v>
+        <v>-2.5759916305541992</v>
       </c>
       <c r="S13">
         <v>-2.473696231842041</v>
       </c>
       <c r="T13">
-        <v>91.52587344169616</v>
+        <v>91.525873441696163</v>
       </c>
       <c r="U13">
-        <v>91.86486193990707</v>
+        <v>91.864861939907072</v>
       </c>
       <c r="V13">
-        <v>91.58947501373291</v>
+        <v>91.589475013732908</v>
       </c>
       <c r="W13">
-        <v>91.18005471324921</v>
+        <v>91.180054713249206</v>
       </c>
       <c r="X13">
-        <v>90.69065366935729</v>
+        <v>90.690653669357289</v>
       </c>
       <c r="Y13">
-        <v>91.37933216667174</v>
+        <v>91.379332166671745</v>
       </c>
       <c r="Z13">
-        <v>91.06102325510979</v>
+        <v>91.061023255109788</v>
       </c>
       <c r="AA13">
-        <v>90.79440855526924</v>
+        <v>90.794408555269243</v>
       </c>
       <c r="AB13">
-        <v>91.32833193516731</v>
+        <v>91.328331935167313</v>
       </c>
       <c r="AC13">
         <v>91.74257727098464</v>
@@ -1744,10 +4901,10 @@
         <v>91.77341588401795</v>
       </c>
       <c r="AE13">
-        <v>0.2704617099114293</v>
+        <v>0.27046170991142932</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1761,7 +4918,7 @@
         <v>2116</v>
       </c>
       <c r="E14">
-        <v>0.3925417075564264</v>
+        <v>0.39254170755642642</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1770,52 +4927,52 @@
         <v>6.575379847325749</v>
       </c>
       <c r="H14">
-        <v>0.3039049804210663</v>
+        <v>0.30390498042106628</v>
       </c>
       <c r="I14">
-        <v>0.5583391785621643</v>
+        <v>0.55833917856216431</v>
       </c>
       <c r="J14">
-        <v>1.377161741256714</v>
+        <v>1.3771617412567141</v>
       </c>
       <c r="K14">
-        <v>1.910423994064331</v>
+        <v>1.9104239940643311</v>
       </c>
       <c r="L14">
-        <v>2.616994380950928</v>
+        <v>2.6169943809509282</v>
       </c>
       <c r="M14">
-        <v>3.115993022918701</v>
+        <v>3.1159930229187012</v>
       </c>
       <c r="N14">
         <v>3.618590116500854</v>
       </c>
       <c r="O14">
-        <v>3.810709238052368</v>
+        <v>3.8107092380523682</v>
       </c>
       <c r="P14">
         <v>4.3494873046875</v>
       </c>
       <c r="Q14">
-        <v>4.438616752624512</v>
+        <v>4.4386167526245117</v>
       </c>
       <c r="R14">
-        <v>4.150892734527588</v>
+        <v>4.1508927345275879</v>
       </c>
       <c r="S14">
-        <v>4.614137172698975</v>
+        <v>4.6141371726989746</v>
       </c>
       <c r="T14">
         <v>102.3099830800295</v>
       </c>
       <c r="U14">
-        <v>102.5695059621334</v>
+        <v>102.56950596213341</v>
       </c>
       <c r="V14">
-        <v>103.3033278143406</v>
+        <v>103.30332781434061</v>
       </c>
       <c r="W14">
-        <v>103.8467220499516</v>
+        <v>103.84672204995159</v>
       </c>
       <c r="X14">
         <v>104.566717274189</v>
@@ -1824,25 +4981,25 @@
         <v>105.1783128833771</v>
       </c>
       <c r="Z14">
-        <v>105.6909619188309</v>
+        <v>105.69096191883089</v>
       </c>
       <c r="AA14">
         <v>105.8869234228134</v>
       </c>
       <c r="AB14">
-        <v>106.4364770507812</v>
+        <v>106.43647705078121</v>
       </c>
       <c r="AC14">
         <v>106.6318277044296</v>
       </c>
       <c r="AD14">
-        <v>106.3380614819526</v>
+        <v>106.33806148195259</v>
       </c>
       <c r="AE14">
-        <v>3.937131334263144</v>
+        <v>3.9371313342631442</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1850,25 +5007,25 @@
         <v>90.3</v>
       </c>
       <c r="C15">
-        <v>87.59999999999999</v>
+        <v>87.6</v>
       </c>
       <c r="D15">
         <v>1065</v>
       </c>
       <c r="E15">
-        <v>-2.693965517241381</v>
+        <v>-2.6939655172413808</v>
       </c>
       <c r="F15">
-        <v>-4.262295081967215</v>
+        <v>-4.2622950819672152</v>
       </c>
       <c r="G15">
-        <v>-6.863065384765982</v>
+        <v>-6.8630653847659824</v>
       </c>
       <c r="H15">
-        <v>-3.180464744567871</v>
+        <v>-3.1804647445678711</v>
       </c>
       <c r="I15">
-        <v>-2.577316284179688</v>
+        <v>-2.5773162841796879</v>
       </c>
       <c r="J15">
         <v>-2.399173259735107</v>
@@ -1877,34 +5034,34 @@
         <v>-2.188692569732666</v>
       </c>
       <c r="L15">
-        <v>-2.128068923950195</v>
+        <v>-2.1280689239501949</v>
       </c>
       <c r="M15">
-        <v>-1.707219839096069</v>
+        <v>-1.7072198390960689</v>
       </c>
       <c r="N15">
-        <v>-1.792947173118591</v>
+        <v>-1.7929471731185911</v>
       </c>
       <c r="O15">
-        <v>-1.865572214126587</v>
+        <v>-1.8655722141265869</v>
       </c>
       <c r="P15">
         <v>-1.686194062232971</v>
       </c>
       <c r="Q15">
-        <v>-1.473623156547546</v>
+        <v>-1.4736231565475459</v>
       </c>
       <c r="R15">
-        <v>-1.414190769195557</v>
+        <v>-1.4141907691955571</v>
       </c>
       <c r="S15">
-        <v>-1.536947846412659</v>
+        <v>-1.5369478464126589</v>
       </c>
       <c r="T15">
-        <v>88.00895754718782</v>
+        <v>88.008957547187819</v>
       </c>
       <c r="U15">
-        <v>88.07010607910156</v>
+        <v>88.070106079101564</v>
       </c>
       <c r="V15">
         <v>87.8407440662384</v>
@@ -1913,31 +5070,31 @@
         <v>87.54112015008927</v>
       </c>
       <c r="X15">
-        <v>87.20389058876037</v>
+        <v>87.203890588760373</v>
       </c>
       <c r="Y15">
-        <v>87.28398878288269</v>
+        <v>87.283988782882687</v>
       </c>
       <c r="Z15">
-        <v>86.91324175179005</v>
+        <v>86.913241751790054</v>
       </c>
       <c r="AA15">
-        <v>86.55456530714035</v>
+        <v>86.554565307140351</v>
       </c>
       <c r="AB15">
-        <v>86.41783541929722</v>
+        <v>86.417835419297219</v>
       </c>
       <c r="AC15">
-        <v>86.4076324917078</v>
+        <v>86.407632491707801</v>
       </c>
       <c r="AD15">
-        <v>86.36116888618469</v>
+        <v>86.361168886184686</v>
       </c>
       <c r="AE15">
-        <v>-1.872296533133733</v>
+        <v>-1.8722965331337329</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1951,7 +5108,7 @@
         <v>929</v>
       </c>
       <c r="E16">
-        <v>-3.634361233480177</v>
+        <v>-3.6343612334801771</v>
       </c>
       <c r="F16">
         <v>-3.142536475869806</v>
@@ -1963,81 +5120,81 @@
         <v>-1.517247676849365</v>
       </c>
       <c r="I16">
-        <v>-1.156304121017456</v>
+        <v>-1.1563041210174561</v>
       </c>
       <c r="J16">
         <v>-1.006382822990417</v>
       </c>
       <c r="K16">
-        <v>-0.903476357460022</v>
+        <v>-0.90347635746002197</v>
       </c>
       <c r="L16">
-        <v>-0.8630895614624023</v>
+        <v>-0.86308956146240234</v>
       </c>
       <c r="M16">
-        <v>-0.4621749520301819</v>
+        <v>-0.46217495203018188</v>
       </c>
       <c r="N16">
-        <v>-0.480053186416626</v>
+        <v>-0.48005318641662598</v>
       </c>
       <c r="O16">
-        <v>-0.4614621996879578</v>
+        <v>-0.46146219968795782</v>
       </c>
       <c r="P16">
-        <v>-0.3693938255310059</v>
+        <v>-0.36939382553100591</v>
       </c>
       <c r="Q16">
-        <v>-0.1628203541040421</v>
+        <v>-0.16282035410404211</v>
       </c>
       <c r="R16">
-        <v>-0.2289754599332809</v>
+        <v>-0.22897545993328089</v>
       </c>
       <c r="S16">
-        <v>-0.06037002801895142</v>
+        <v>-6.0370028018951423E-2</v>
       </c>
       <c r="T16">
-        <v>87.25571855831146</v>
+        <v>87.255718558311457</v>
       </c>
       <c r="U16">
-        <v>87.08129606938361</v>
+        <v>87.081296069383612</v>
       </c>
       <c r="V16">
-        <v>86.61941502988338</v>
+        <v>86.619415029883385</v>
       </c>
       <c r="W16">
-        <v>86.11487904536725</v>
+        <v>86.114879045367246</v>
       </c>
       <c r="X16">
-        <v>85.65429061889648</v>
+        <v>85.654290618896482</v>
       </c>
       <c r="Y16">
-        <v>85.60252954125404</v>
+        <v>85.602529541254043</v>
       </c>
       <c r="Z16">
-        <v>85.38811436605452</v>
+        <v>85.388114366054523</v>
       </c>
       <c r="AA16">
-        <v>85.50360397046805</v>
+        <v>85.503603970468049</v>
       </c>
       <c r="AB16">
-        <v>85.68232131004333</v>
+        <v>85.682321310043335</v>
       </c>
       <c r="AC16">
-        <v>85.95981167511641</v>
+        <v>85.959811675116413</v>
       </c>
       <c r="AD16">
-        <v>86.10239417807757</v>
+        <v>86.102394178077574</v>
       </c>
       <c r="AE16">
-        <v>-1.321775121779711</v>
+        <v>-1.3217751217797109</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B17">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="C17">
         <v>92.7</v>
@@ -2046,13 +5203,13 @@
         <v>747</v>
       </c>
       <c r="E17">
-        <v>-3.549060542797489</v>
+        <v>-3.5490605427974891</v>
       </c>
       <c r="F17">
-        <v>-3.537981269510915</v>
+        <v>-3.5379812695109152</v>
       </c>
       <c r="G17">
-        <v>-4.52095232834334</v>
+        <v>-4.5209523283433404</v>
       </c>
       <c r="H17">
         <v>-2.546624898910522</v>
@@ -2061,10 +5218,10 @@
         <v>-2.078811407089233</v>
       </c>
       <c r="J17">
-        <v>-2.037787675857544</v>
+        <v>-2.0377876758575439</v>
       </c>
       <c r="K17">
-        <v>-1.761329531669617</v>
+        <v>-1.7613295316696169</v>
       </c>
       <c r="L17">
         <v>-1.690543651580811</v>
@@ -2073,61 +5230,872 @@
         <v>-1.180246829986572</v>
       </c>
       <c r="N17">
-        <v>-1.208888292312622</v>
+        <v>-1.2088882923126221</v>
       </c>
       <c r="O17">
         <v>-1.026924848556519</v>
       </c>
       <c r="P17">
-        <v>-0.8107346296310425</v>
+        <v>-0.81073462963104248</v>
       </c>
       <c r="Q17">
-        <v>-0.5066112279891968</v>
+        <v>-0.50661122798919678</v>
       </c>
       <c r="R17">
-        <v>-0.202140673995018</v>
+        <v>-0.20214067399501801</v>
       </c>
       <c r="S17">
-        <v>-0.3759636282920837</v>
+        <v>-0.37596362829208368</v>
       </c>
       <c r="T17">
-        <v>93.5552400970459</v>
+        <v>93.555240097045896</v>
       </c>
       <c r="U17">
-        <v>93.90641986060143</v>
+        <v>93.906419860601432</v>
       </c>
       <c r="V17">
         <v>93.55391276955605</v>
       </c>
       <c r="W17">
-        <v>93.42497561538218</v>
+        <v>93.424975615382181</v>
       </c>
       <c r="X17">
-        <v>93.00074570560454</v>
+        <v>93.000745705604544</v>
       </c>
       <c r="Y17">
-        <v>93.08820748615265</v>
+        <v>93.088207486152655</v>
       </c>
       <c r="Z17">
-        <v>92.56727167010307</v>
+        <v>92.567271670103068</v>
       </c>
       <c r="AA17">
-        <v>92.44085219144822</v>
+        <v>92.440852191448215</v>
       </c>
       <c r="AB17">
-        <v>92.34520605981349</v>
+        <v>92.345206059813492</v>
       </c>
       <c r="AC17">
-        <v>92.42935816919804</v>
+        <v>92.429358169198039</v>
       </c>
       <c r="AD17">
-        <v>92.51261559520661</v>
+        <v>92.512615595206611</v>
       </c>
       <c r="AE17">
-        <v>-1.114447999660695</v>
+        <v>-1.1144479996606951</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138CBC97-CC5E-4A1C-A2AC-F53F58F744DD}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>20.03</v>
+      </c>
+      <c r="C1" s="1">
+        <v>20.04</v>
+      </c>
+      <c r="D1" s="1">
+        <v>20.05</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="F1" s="1">
+        <v>20.07</v>
+      </c>
+      <c r="G1" s="1">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="H1" s="1">
+        <v>20.09</v>
+      </c>
+      <c r="I1" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J1" s="1">
+        <v>20.11</v>
+      </c>
+      <c r="K1" s="1">
+        <v>20.12</v>
+      </c>
+      <c r="L1" s="1">
+        <v>21.01</v>
+      </c>
+      <c r="M1" s="1">
+        <v>21.02</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>110.9</v>
+      </c>
+      <c r="C2">
+        <v>111.0306683900356</v>
+      </c>
+      <c r="D2">
+        <v>111.2602857732773</v>
+      </c>
+      <c r="E2">
+        <v>111.7555283532142</v>
+      </c>
+      <c r="F2">
+        <v>112.07555706024171</v>
+      </c>
+      <c r="G2">
+        <v>112.4832576627731</v>
+      </c>
+      <c r="H2">
+        <v>113.4098495135307</v>
+      </c>
+      <c r="I2">
+        <v>113.9629972229004</v>
+      </c>
+      <c r="J2">
+        <v>115.25343265771861</v>
+      </c>
+      <c r="K2">
+        <v>115.5100267181396</v>
+      </c>
+      <c r="L2">
+        <v>115.5368987598419</v>
+      </c>
+      <c r="M2">
+        <v>115.1563611028195</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>3.7158136329422442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>104.6</v>
+      </c>
+      <c r="C3">
+        <v>103.59929343175889</v>
+      </c>
+      <c r="D3">
+        <v>104.3821754684448</v>
+      </c>
+      <c r="E3">
+        <v>104.8323007621765</v>
+      </c>
+      <c r="F3">
+        <v>105.2690462150574</v>
+      </c>
+      <c r="G3">
+        <v>105.61853939294819</v>
+      </c>
+      <c r="H3">
+        <v>106.6990232191086</v>
+      </c>
+      <c r="I3">
+        <v>106.66887840557099</v>
+      </c>
+      <c r="J3">
+        <v>107.33004778051379</v>
+      </c>
+      <c r="K3">
+        <v>108.0215237350464</v>
+      </c>
+      <c r="L3">
+        <v>109.1113558421135</v>
+      </c>
+      <c r="M3">
+        <v>110.4985111474991</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>6.6595219785786863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>103.3</v>
+      </c>
+      <c r="C4">
+        <v>104.5739163827896</v>
+      </c>
+      <c r="D4">
+        <v>105.0855812044144</v>
+      </c>
+      <c r="E4">
+        <v>105.9241909723282</v>
+      </c>
+      <c r="F4">
+        <v>106.0156064419746</v>
+      </c>
+      <c r="G4">
+        <v>106.656722135067</v>
+      </c>
+      <c r="H4">
+        <v>106.8963013324738</v>
+      </c>
+      <c r="I4">
+        <v>106.7920535030365</v>
+      </c>
+      <c r="J4">
+        <v>107.0145127763748</v>
+      </c>
+      <c r="K4">
+        <v>107.013174492836</v>
+      </c>
+      <c r="L4">
+        <v>107.0685067043305</v>
+      </c>
+      <c r="M4">
+        <v>108.6399790930748</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>3.888218832123957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>93.9</v>
+      </c>
+      <c r="C5">
+        <v>93.527597938537596</v>
+      </c>
+      <c r="D5">
+        <v>93.791458793878562</v>
+      </c>
+      <c r="E5">
+        <v>93.628357855081561</v>
+      </c>
+      <c r="F5">
+        <v>93.702127253592025</v>
+      </c>
+      <c r="G5">
+        <v>93.532917394757277</v>
+      </c>
+      <c r="H5">
+        <v>93.881309590876086</v>
+      </c>
+      <c r="I5">
+        <v>94.03744624257088</v>
+      </c>
+      <c r="J5">
+        <v>94.693334773063654</v>
+      </c>
+      <c r="K5">
+        <v>95.131997025847454</v>
+      </c>
+      <c r="L5">
+        <v>95.453787852644922</v>
+      </c>
+      <c r="M5">
+        <v>95.513453014969841</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5">
+        <v>2.1232824537386952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>104.3566231827736</v>
+      </c>
+      <c r="D6">
+        <v>104.0148140650988</v>
+      </c>
+      <c r="E6">
+        <v>104.3767293720245</v>
+      </c>
+      <c r="F6">
+        <v>104.462333306551</v>
+      </c>
+      <c r="G6">
+        <v>104.9341179447174</v>
+      </c>
+      <c r="H6">
+        <v>104.8017129607201</v>
+      </c>
+      <c r="I6">
+        <v>105.1302478337288</v>
+      </c>
+      <c r="J6">
+        <v>105.1547955436707</v>
+      </c>
+      <c r="K6">
+        <v>105.78583637094501</v>
+      </c>
+      <c r="L6">
+        <v>105.68566970825199</v>
+      </c>
+      <c r="M6">
+        <v>105.0918146038055</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6">
+        <v>0.70449905200968832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>103.3</v>
+      </c>
+      <c r="C7">
+        <v>103.7280322544575</v>
+      </c>
+      <c r="D7">
+        <v>104.4540977498889</v>
+      </c>
+      <c r="E7">
+        <v>104.33920296907429</v>
+      </c>
+      <c r="F7">
+        <v>104.51222735881809</v>
+      </c>
+      <c r="G7">
+        <v>104.39050127017499</v>
+      </c>
+      <c r="H7">
+        <v>105.2461357998848</v>
+      </c>
+      <c r="I7">
+        <v>105.1529736273289</v>
+      </c>
+      <c r="J7">
+        <v>105.35069865465159</v>
+      </c>
+      <c r="K7">
+        <v>105.6575497970581</v>
+      </c>
+      <c r="L7">
+        <v>106.1340199780464</v>
+      </c>
+      <c r="M7">
+        <v>106.2540518381595</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7">
+        <v>2.4352333007777949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>116.1</v>
+      </c>
+      <c r="C8">
+        <v>116.1542817831039</v>
+      </c>
+      <c r="D8">
+        <v>117.67182447910309</v>
+      </c>
+      <c r="E8">
+        <v>118.6798151721954</v>
+      </c>
+      <c r="F8">
+        <v>119.8811771087646</v>
+      </c>
+      <c r="G8">
+        <v>121.05029154586791</v>
+      </c>
+      <c r="H8">
+        <v>122.5931812963486</v>
+      </c>
+      <c r="I8">
+        <v>123.41430834293369</v>
+      </c>
+      <c r="J8">
+        <v>123.74359806060789</v>
+      </c>
+      <c r="K8">
+        <v>124.8667149333954</v>
+      </c>
+      <c r="L8">
+        <v>125.88245799446111</v>
+      </c>
+      <c r="M8">
+        <v>126.46688222694399</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8">
+        <v>8.8783644352403925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>87.8</v>
+      </c>
+      <c r="C9">
+        <v>86.866747786939158</v>
+      </c>
+      <c r="D9">
+        <v>87.139889726459984</v>
+      </c>
+      <c r="E9">
+        <v>86.881418288946165</v>
+      </c>
+      <c r="F9">
+        <v>86.995668934941293</v>
+      </c>
+      <c r="G9">
+        <v>86.848181521296496</v>
+      </c>
+      <c r="H9">
+        <v>87.686407763004297</v>
+      </c>
+      <c r="I9">
+        <v>87.752133250236511</v>
+      </c>
+      <c r="J9">
+        <v>88.407696357965477</v>
+      </c>
+      <c r="K9">
+        <v>88.849957440137857</v>
+      </c>
+      <c r="L9">
+        <v>89.405351459026321</v>
+      </c>
+      <c r="M9">
+        <v>89.971262225151065</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9">
+        <v>3.573881280586733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>88.5</v>
+      </c>
+      <c r="C10">
+        <v>88.541580533027641</v>
+      </c>
+      <c r="D10">
+        <v>87.795471744537352</v>
+      </c>
+      <c r="E10">
+        <v>86.994630630970008</v>
+      </c>
+      <c r="F10">
+        <v>85.989003396034235</v>
+      </c>
+      <c r="G10">
+        <v>85.290067728996277</v>
+      </c>
+      <c r="H10">
+        <v>84.752775747299196</v>
+      </c>
+      <c r="I10">
+        <v>84.43117217063903</v>
+      </c>
+      <c r="J10">
+        <v>83.810260711669912</v>
+      </c>
+      <c r="K10">
+        <v>83.74355478954314</v>
+      </c>
+      <c r="L10">
+        <v>83.549410135746001</v>
+      </c>
+      <c r="M10">
+        <v>83.412875547409058</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10">
+        <v>-5.7924253833547494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>87.161737981796264</v>
+      </c>
+      <c r="D11">
+        <v>87.128498690128325</v>
+      </c>
+      <c r="E11">
+        <v>86.606113733053206</v>
+      </c>
+      <c r="F11">
+        <v>86.253328895568856</v>
+      </c>
+      <c r="G11">
+        <v>85.95046165323258</v>
+      </c>
+      <c r="H11">
+        <v>86.23884464216232</v>
+      </c>
+      <c r="I11">
+        <v>86.018416366577156</v>
+      </c>
+      <c r="J11">
+        <v>85.933169012546543</v>
+      </c>
+      <c r="K11">
+        <v>86.379392539858827</v>
+      </c>
+      <c r="L11">
+        <v>86.863249377965928</v>
+      </c>
+      <c r="M11">
+        <v>87.197393894195557</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11">
+        <v>4.0907757491859258E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>92.3</v>
+      </c>
+      <c r="C12">
+        <v>91.628753415226939</v>
+      </c>
+      <c r="D12">
+        <v>91.553193508386613</v>
+      </c>
+      <c r="E12">
+        <v>91.273105510354043</v>
+      </c>
+      <c r="F12">
+        <v>91.257549071311956</v>
+      </c>
+      <c r="G12">
+        <v>91.077979137659071</v>
+      </c>
+      <c r="H12">
+        <v>91.178996489286419</v>
+      </c>
+      <c r="I12">
+        <v>91.20812720382213</v>
+      </c>
+      <c r="J12">
+        <v>91.416984778285027</v>
+      </c>
+      <c r="K12">
+        <v>91.512405026674273</v>
+      </c>
+      <c r="L12">
+        <v>91.948077235043044</v>
+      </c>
+      <c r="M12">
+        <v>92.256423085883256</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12">
+        <v>0.68501387093193866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>94.2</v>
+      </c>
+      <c r="C13">
+        <v>91.525873441696163</v>
+      </c>
+      <c r="D13">
+        <v>91.864861939907072</v>
+      </c>
+      <c r="E13">
+        <v>91.589475013732908</v>
+      </c>
+      <c r="F13">
+        <v>91.180054713249206</v>
+      </c>
+      <c r="G13">
+        <v>90.690653669357289</v>
+      </c>
+      <c r="H13">
+        <v>91.379332166671745</v>
+      </c>
+      <c r="I13">
+        <v>91.061023255109788</v>
+      </c>
+      <c r="J13">
+        <v>90.794408555269243</v>
+      </c>
+      <c r="K13">
+        <v>91.328331935167313</v>
+      </c>
+      <c r="L13">
+        <v>91.74257727098464</v>
+      </c>
+      <c r="M13">
+        <v>91.77341588401795</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13">
+        <v>0.27046170991142932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>102.1</v>
+      </c>
+      <c r="C14">
+        <v>102.3099830800295</v>
+      </c>
+      <c r="D14">
+        <v>102.56950596213341</v>
+      </c>
+      <c r="E14">
+        <v>103.30332781434061</v>
+      </c>
+      <c r="F14">
+        <v>103.84672204995159</v>
+      </c>
+      <c r="G14">
+        <v>104.566717274189</v>
+      </c>
+      <c r="H14">
+        <v>105.1783128833771</v>
+      </c>
+      <c r="I14">
+        <v>105.69096191883089</v>
+      </c>
+      <c r="J14">
+        <v>105.8869234228134</v>
+      </c>
+      <c r="K14">
+        <v>106.43647705078121</v>
+      </c>
+      <c r="L14">
+        <v>106.6318277044296</v>
+      </c>
+      <c r="M14">
+        <v>106.33806148195259</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14">
+        <v>3.9371313342631442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>87.6</v>
+      </c>
+      <c r="C15">
+        <v>88.008957547187819</v>
+      </c>
+      <c r="D15">
+        <v>88.070106079101564</v>
+      </c>
+      <c r="E15">
+        <v>87.8407440662384</v>
+      </c>
+      <c r="F15">
+        <v>87.54112015008927</v>
+      </c>
+      <c r="G15">
+        <v>87.203890588760373</v>
+      </c>
+      <c r="H15">
+        <v>87.283988782882687</v>
+      </c>
+      <c r="I15">
+        <v>86.913241751790054</v>
+      </c>
+      <c r="J15">
+        <v>86.554565307140351</v>
+      </c>
+      <c r="K15">
+        <v>86.417835419297219</v>
+      </c>
+      <c r="L15">
+        <v>86.407632491707801</v>
+      </c>
+      <c r="M15">
+        <v>86.361168886184686</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15">
+        <v>-1.8722965331337329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>86.3</v>
+      </c>
+      <c r="C16">
+        <v>87.255718558311457</v>
+      </c>
+      <c r="D16">
+        <v>87.081296069383612</v>
+      </c>
+      <c r="E16">
+        <v>86.619415029883385</v>
+      </c>
+      <c r="F16">
+        <v>86.114879045367246</v>
+      </c>
+      <c r="G16">
+        <v>85.654290618896482</v>
+      </c>
+      <c r="H16">
+        <v>85.602529541254043</v>
+      </c>
+      <c r="I16">
+        <v>85.388114366054523</v>
+      </c>
+      <c r="J16">
+        <v>85.503603970468049</v>
+      </c>
+      <c r="K16">
+        <v>85.682321310043335</v>
+      </c>
+      <c r="L16">
+        <v>85.959811675116413</v>
+      </c>
+      <c r="M16">
+        <v>86.102394178077574</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16">
+        <v>-1.3217751217797109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>92.7</v>
+      </c>
+      <c r="C17">
+        <v>93.555240097045896</v>
+      </c>
+      <c r="D17">
+        <v>93.906419860601432</v>
+      </c>
+      <c r="E17">
+        <v>93.55391276955605</v>
+      </c>
+      <c r="F17">
+        <v>93.424975615382181</v>
+      </c>
+      <c r="G17">
+        <v>93.000745705604544</v>
+      </c>
+      <c r="H17">
+        <v>93.088207486152655</v>
+      </c>
+      <c r="I17">
+        <v>92.567271670103068</v>
+      </c>
+      <c r="J17">
+        <v>92.440852191448215</v>
+      </c>
+      <c r="K17">
+        <v>92.345206059813492</v>
+      </c>
+      <c r="L17">
+        <v>92.429358169198039</v>
+      </c>
+      <c r="M17">
+        <v>92.512615595206611</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17">
+        <v>-1.1144479996606951</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>